--- a/5semestr/badania-operacyjne/Solver/lab1.xlsx
+++ b/5semestr/badania-operacyjne/Solver/lab1.xlsx
@@ -5,78 +5,144 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/5semestr/Solver/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/5semestr/badania-operacyjne/Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C3E3F0-1CAB-1740-9E97-855159C84F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19408614-F8E0-2645-B353-BBD3905DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17100" activeTab="1" xr2:uid="{7EC06E7C-73C4-C649-BC73-08367AB9B464}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17100" activeTab="3" xr2:uid="{7EC06E7C-73C4-C649-BC73-08367AB9B464}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="lab1a" sheetId="1" r:id="rId1"/>
+    <sheet name="lab1b" sheetId="2" r:id="rId2"/>
+    <sheet name="lab2a" sheetId="3" r:id="rId3"/>
+    <sheet name="lab2b" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$8:$C$8</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$E$7:$F$7</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">lab1a!$B$8:$C$8</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">lab1b!$E$7:$F$7</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">lab2a!$B$10:$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">lab2b!$G$7:$G$10</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$7:$E$8</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$C$9:$C$10</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">lab1a!$E$7:$E$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">lab1b!$C$9:$C$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">lab2a!$B$12:$B$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">lab2b!$H$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">lab2a!$C$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">lab2b!$I$3</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$9</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$C$12</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">lab1a!$E$9</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">lab1b!$C$12</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">lab2a!$B$15</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">lab2b!$J$3</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$F$7:$F$8</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet2!$D$9:$D$10</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">lab1a!$F$7:$F$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">lab1b!$D$9:$D$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">lab2a!$D$3:$D$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">lab2a!$A$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">50</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>chleb</t>
   </si>
@@ -133,6 +199,51 @@
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>zysk</t>
+  </si>
+  <si>
+    <t>funkcja celu=</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
   </si>
 </sst>
 </file>
@@ -148,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +269,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +324,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD64C9CA-9522-384F-84F8-451334B81E9C}">
   <dimension ref="C4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -721,4 +850,307 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E23253C-538A-574F-AE6C-80398CDEB76E}">
+  <dimension ref="A2:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>4800</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4800</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f>SUMPRODUCT(B3:C3,$B$10:$C$10)</f>
+        <v>21400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:B15" si="0">SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
+        <v>11800</v>
+      </c>
+      <c r="F13" s="2">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>32800</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA36377-1DAC-714B-8A3C-7D9198D96BB7}">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <f>SUMPRODUCT(B4:B7,$G$7:$G$10)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:J3" si="0">SUMPRODUCT(C4:C7,$G$7:$G$10)</f>
+        <v>149.99999999999997</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>199.99999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <v>49.999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5semestr/badania-operacyjne/Solver/lab1.xlsx
+++ b/5semestr/badania-operacyjne/Solver/lab1.xlsx
@@ -1,146 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/5semestr/badania-operacyjne/Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19408614-F8E0-2645-B353-BBD3905DA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D64A9-0DF4-FF47-BFE3-F15B4E930178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17100" activeTab="3" xr2:uid="{7EC06E7C-73C4-C649-BC73-08367AB9B464}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17100" activeTab="6" xr2:uid="{7EC06E7C-73C4-C649-BC73-08367AB9B464}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1a" sheetId="1" r:id="rId1"/>
     <sheet name="lab1b" sheetId="2" r:id="rId2"/>
     <sheet name="lab2a" sheetId="3" r:id="rId3"/>
     <sheet name="lab2b" sheetId="4" r:id="rId4"/>
+    <sheet name="lini2-zad20" sheetId="5" r:id="rId5"/>
+    <sheet name="transport" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">lab1a!$B$8:$C$8</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">lab1b!$E$7:$F$7</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">lab2a!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">lab2b!$G$7:$G$10</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'lini2-zad20'!$E$10:$E$11</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">transport!$B$8:$E$10</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">lab1a!$E$7:$E$8</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">lab1b!$C$9:$C$10</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">lab2a!$B$12:$B$14</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">lab2b!$H$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'lini2-zad20'!$E$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">transport!$B$11</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">lab2a!$C$10</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">lab2b!$I$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'lini2-zad20'!$E$10:$E$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">transport!$C$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'lini2-zad20'!$H$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">transport!$D$11</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'lini2-zad20'!$I$4</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">transport!$E$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">transport!$F$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">transport!$F$3</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">transport!$F$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">lab1a!$E$9</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">lab1b!$C$12</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">lab2a!$B$15</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">lab2b!$J$3</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'lini2-zad20'!$K$4</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">transport!$B$13</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">lab1a!$F$7:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">lab1b!$D$9:$D$10</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">lab2a!$D$3:$D$5</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'lini2-zad20'!$E$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">transport!$B$5</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">lab2a!$A$7</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">50</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'lini2-zad20'!$E$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">transport!$C$5</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'lini2-zad20'!$C$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">transport!$D$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'lini2-zad20'!$D$6</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">transport!$E$5</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">transport!$F$4</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">transport!$F$3</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">transport!$F$2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -163,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>chleb</t>
   </si>
@@ -244,6 +332,63 @@
   </si>
   <si>
     <t>x4</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>ceny</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>p1&lt;=p2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>cel</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>odpad</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
   </si>
 </sst>
 </file>
@@ -259,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,6 +483,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA36377-1DAC-714B-8A3C-7D9198D96BB7}">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1153,4 +1307,504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99785505-BAAB-CC4E-ADA0-5655355C2DB2}">
+  <dimension ref="B3:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>SUMPRODUCT($E$10:$E$11,C4:C5)</f>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K4" si="0">SUMPRODUCT($E$10:$E$11,D4:D5)</f>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>47.999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>60</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61867E75-6688-D44F-97DC-D776A308EDC3}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7">
+        <v>80</v>
+      </c>
+      <c r="D3" s="7">
+        <v>70</v>
+      </c>
+      <c r="E3" s="7">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="7">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUMPRODUCT(B8:E8,B2:E2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F10" si="0">SUMPRODUCT(B9:E9,B3:E3)</f>
+        <v>49.999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>SUMPRODUCT(B8:B10,B2:B4)</f>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:E11" si="1">SUMPRODUCT(C8:C10,C2:C4)</f>
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>49.999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <f>SUMPRODUCT(B8:E10,B2:E4)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546B5273-3411-B64F-90EF-B797F8F13FF7}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>